--- a/PTB Raw qPCR data.xlsx
+++ b/PTB Raw qPCR data.xlsx
@@ -577,7 +577,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>7020483956</v>
+        <v>1.3003351E-2</v>
       </c>
       <c r="F45" s="1">
         <v>4.4488692820629762E-2</v>
